--- a/questionData.xlsx
+++ b/questionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\teach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_project\Corn_Game\teach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBEB6A8-42CE-4224-8668-A2CA4837D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC431DA-E7B3-4D92-895E-CC74CF1D26C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="1" r:id="rId1"/>
@@ -652,9 +652,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1003,7 +1002,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C2" t="s">
@@ -1056,7 +1055,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1098,7 +1097,7 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E2" t="s">
@@ -1204,7 +1203,7 @@
       <c r="E7" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2473,40 +2472,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="33.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C2" t="s">
@@ -2518,15 +2517,15 @@
       <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C3" t="s">
@@ -2538,15 +2537,15 @@
       <c r="E3" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C4" t="s">
@@ -2558,15 +2557,15 @@
       <c r="E4" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C5" t="s">
@@ -2578,87 +2577,87 @@
       <c r="E5" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
